--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.455159666666667</v>
+        <v>0.5110453333333334</v>
       </c>
       <c r="H2">
-        <v>10.365479</v>
+        <v>1.533136</v>
       </c>
       <c r="I2">
-        <v>0.5572698255371761</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="J2">
-        <v>0.557269825537176</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.220104333333334</v>
+        <v>12.28101533333333</v>
       </c>
       <c r="N2">
-        <v>18.660313</v>
+        <v>36.843046</v>
       </c>
       <c r="O2">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="P2">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="Q2">
-        <v>21.49145361499189</v>
+        <v>6.276155574695112</v>
       </c>
       <c r="R2">
-        <v>193.423082534927</v>
+        <v>56.48540017225601</v>
       </c>
       <c r="S2">
-        <v>0.5144534336052838</v>
+        <v>0.1506045451382611</v>
       </c>
       <c r="T2">
-        <v>0.5144534336052837</v>
+        <v>0.1506045451382611</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.455159666666667</v>
+        <v>0.5110453333333334</v>
       </c>
       <c r="H3">
-        <v>10.365479</v>
+        <v>1.533136</v>
       </c>
       <c r="I3">
-        <v>0.5572698255371761</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="J3">
-        <v>0.557269825537176</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.09168666666666668</v>
+        <v>0.09168666666666665</v>
       </c>
       <c r="N3">
         <v>0.27506</v>
       </c>
       <c r="O3">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004844</v>
       </c>
       <c r="P3">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004845</v>
       </c>
       <c r="Q3">
-        <v>0.3167920726377779</v>
+        <v>0.04685604312888889</v>
       </c>
       <c r="R3">
-        <v>2.85112865374</v>
+        <v>0.4217043881599999</v>
       </c>
       <c r="S3">
-        <v>0.007583236221571919</v>
+        <v>0.001124371915007518</v>
       </c>
       <c r="T3">
-        <v>0.007583236221571918</v>
+        <v>0.001124371915007518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.455159666666667</v>
+        <v>0.5110453333333334</v>
       </c>
       <c r="H4">
-        <v>10.365479</v>
+        <v>1.533136</v>
       </c>
       <c r="I4">
-        <v>0.5572698255371761</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="J4">
-        <v>0.557269825537176</v>
+        <v>0.1569529625135799</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4259936666666667</v>
+        <v>0.4259936666666666</v>
       </c>
       <c r="N4">
         <v>1.277981</v>
       </c>
       <c r="O4">
-        <v>0.06322458905137661</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="P4">
-        <v>0.06322458905137662</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="Q4">
-        <v>1.471876135322111</v>
+        <v>0.2177020753795555</v>
       </c>
       <c r="R4">
-        <v>13.246885217899</v>
+        <v>1.959318678416</v>
       </c>
       <c r="S4">
-        <v>0.0352331557103203</v>
+        <v>0.005224045460311288</v>
       </c>
       <c r="T4">
-        <v>0.0352331557103203</v>
+        <v>0.005224045460311288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>1.884975666666667</v>
       </c>
       <c r="H5">
-        <v>5.654927000000001</v>
+        <v>5.654927</v>
       </c>
       <c r="I5">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="J5">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.220104333333334</v>
+        <v>12.28101533333333</v>
       </c>
       <c r="N5">
-        <v>18.660313</v>
+        <v>36.843046</v>
       </c>
       <c r="O5">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="P5">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="Q5">
-        <v>11.72474531246123</v>
+        <v>23.14941506529356</v>
       </c>
       <c r="R5">
-        <v>105.522707812151</v>
+        <v>208.344735587642</v>
       </c>
       <c r="S5">
-        <v>0.2806620525628605</v>
+        <v>0.5555004308978925</v>
       </c>
       <c r="T5">
-        <v>0.2806620525628605</v>
+        <v>0.5555004308978925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1.884975666666667</v>
       </c>
       <c r="H6">
-        <v>5.654927000000001</v>
+        <v>5.654927</v>
       </c>
       <c r="I6">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="J6">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09168666666666668</v>
+        <v>0.09168666666666665</v>
       </c>
       <c r="N6">
         <v>0.27506</v>
       </c>
       <c r="O6">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004844</v>
       </c>
       <c r="P6">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004845</v>
       </c>
       <c r="Q6">
-        <v>0.1728271356244445</v>
+        <v>0.1728271356244444</v>
       </c>
       <c r="R6">
         <v>1.55544422062</v>
       </c>
       <c r="S6">
-        <v>0.004137063734029564</v>
+        <v>0.004147212706646846</v>
       </c>
       <c r="T6">
-        <v>0.004137063734029564</v>
+        <v>0.004147212706646847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1.884975666666667</v>
       </c>
       <c r="H7">
-        <v>5.654927000000001</v>
+        <v>5.654927</v>
       </c>
       <c r="I7">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="J7">
-        <v>0.3040207001254324</v>
+        <v>0.5789163814873767</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4259936666666667</v>
+        <v>0.4259936666666666</v>
       </c>
       <c r="N7">
         <v>1.277981</v>
       </c>
       <c r="O7">
-        <v>0.06322458905137661</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="P7">
-        <v>0.06322458905137662</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="Q7">
-        <v>0.8029876958207778</v>
+        <v>0.8029876958207777</v>
       </c>
       <c r="R7">
-        <v>7.226889262387001</v>
+        <v>7.226889262386999</v>
       </c>
       <c r="S7">
-        <v>0.01922158382854226</v>
+        <v>0.01926873788283736</v>
       </c>
       <c r="T7">
-        <v>0.01922158382854227</v>
+        <v>0.01926873788283736</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8600203333333333</v>
+        <v>0.8600203333333334</v>
       </c>
       <c r="H8">
         <v>2.580061</v>
       </c>
       <c r="I8">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990434</v>
       </c>
       <c r="J8">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990435</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.220104333333334</v>
+        <v>12.28101533333333</v>
       </c>
       <c r="N8">
-        <v>18.660313</v>
+        <v>36.843046</v>
       </c>
       <c r="O8">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="P8">
-        <v>0.9231675752574263</v>
+        <v>0.959552102275422</v>
       </c>
       <c r="Q8">
-        <v>5.349416202121445</v>
+        <v>10.56192290064511</v>
       </c>
       <c r="R8">
-        <v>48.144745819093</v>
+        <v>95.05730610580601</v>
       </c>
       <c r="S8">
-        <v>0.128052089089282</v>
+        <v>0.2534471262392684</v>
       </c>
       <c r="T8">
-        <v>0.128052089089282</v>
+        <v>0.2534471262392685</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8600203333333333</v>
+        <v>0.8600203333333334</v>
       </c>
       <c r="H9">
         <v>2.580061</v>
       </c>
       <c r="I9">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990434</v>
       </c>
       <c r="J9">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990435</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09168666666666668</v>
+        <v>0.09168666666666665</v>
       </c>
       <c r="N9">
         <v>0.27506</v>
       </c>
       <c r="O9">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004844</v>
       </c>
       <c r="P9">
-        <v>0.01360783569119702</v>
+        <v>0.007163750827004845</v>
       </c>
       <c r="Q9">
-        <v>0.07885239762888889</v>
+        <v>0.07885239762888888</v>
       </c>
       <c r="R9">
         <v>0.70967157866</v>
       </c>
       <c r="S9">
-        <v>0.001887535735595535</v>
+        <v>0.001892166205350479</v>
       </c>
       <c r="T9">
-        <v>0.001887535735595534</v>
+        <v>0.00189216620535048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8600203333333333</v>
+        <v>0.8600203333333334</v>
       </c>
       <c r="H10">
         <v>2.580061</v>
       </c>
       <c r="I10">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990434</v>
       </c>
       <c r="J10">
-        <v>0.1387094743373916</v>
+        <v>0.2641306559990435</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4259936666666667</v>
+        <v>0.4259936666666666</v>
       </c>
       <c r="N10">
         <v>1.277981</v>
       </c>
       <c r="O10">
-        <v>0.06322458905137661</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="P10">
-        <v>0.06322458905137662</v>
+        <v>0.03328414689757318</v>
       </c>
       <c r="Q10">
         <v>0.3663632152045555</v>
@@ -1066,10 +1066,10 @@
         <v>3.297268936841</v>
       </c>
       <c r="S10">
-        <v>0.008769849512514057</v>
+        <v>0.008791363554424529</v>
       </c>
       <c r="T10">
-        <v>0.008769849512514057</v>
+        <v>0.008791363554424531</v>
       </c>
     </row>
   </sheetData>
